--- a/testdata/userDetails.xlsx
+++ b/testdata/userDetails.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="courseDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -28,7 +29,55 @@
     <t>admin@123</t>
   </si>
   <si>
-    <t>dhruv@gmail.com</t>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>startMonth</t>
+  </si>
+  <si>
+    <t>EndMonth</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Automation Testing Using Selenium</t>
+  </si>
+  <si>
+    <t>Selenium, BDD, Cucumber, Java</t>
+  </si>
+  <si>
+    <t>Mukesh Otwani</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>C:\\Users\\intel\\Documents\\Sunset.png</t>
   </si>
 </sst>
 </file>
@@ -36,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,6 +99,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -59,9 +116,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,15 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -89,113 +201,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,25 +260,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,144 +422,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,14 +444,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -404,26 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,21 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,11 +501,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -501,157 +555,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,49 +1037,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="admin@email.com" tooltip="mailto:admin@email.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="admin@email.com"/>
     <hyperlink ref="B2" r:id="rId2" display="admin@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="dhruv@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="41.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="30.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="10.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="48.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>4800</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testdata/userDetails.xlsx
+++ b/testdata/userDetails.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="courseDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="course" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,7 +29,10 @@
     <t>admin@123</t>
   </si>
   <si>
-    <t>CourseName</t>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Course Name</t>
   </si>
   <si>
     <t>Description</t>
@@ -41,43 +44,40 @@
     <t>Price</t>
   </si>
   <si>
-    <t>startMonth</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>StartMonth</t>
   </si>
   <si>
     <t>EndMonth</t>
   </si>
   <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Automation Testing Using Selenium</t>
-  </si>
-  <si>
-    <t>Selenium, BDD, Cucumber, Java</t>
-  </si>
-  <si>
-    <t>Mukesh Otwani</t>
-  </si>
-  <si>
-    <t>June</t>
+    <t>C:\\Users\\intel\\Documents\\Sunset.png</t>
+  </si>
+  <si>
+    <t>Selenium Using Java</t>
+  </si>
+  <si>
+    <t>Selenium, Java, BDD, Cucumber</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
   </si>
   <si>
     <t>August</t>
   </si>
   <si>
-    <t>Automation Testing</t>
-  </si>
-  <si>
-    <t>C:\\Users\\intel\\Documents\\Sunset.png</t>
+    <t>October</t>
   </si>
 </sst>
 </file>
@@ -85,9 +85,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -129,9 +129,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +155,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -216,29 +223,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,175 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,16 +470,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,16 +533,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,18 +569,18 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,16 +590,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -608,114 +608,115 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
@@ -1040,28 +1041,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1086,44 +1087,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="41.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="30.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="10.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="20.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="48.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="29.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1137,20 +1138,20 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>4800</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
+      </c>
+      <c r="E2">
+        <v>8000</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
